--- a/Code/Results/Cases/Case_7_41/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_41/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.590704759707819</v>
+        <v>2.586056266532012</v>
       </c>
       <c r="C2">
-        <v>0.3690427786220596</v>
+        <v>0.4048736721508135</v>
       </c>
       <c r="D2">
-        <v>0.006228752425425199</v>
+        <v>0.04936867478996732</v>
       </c>
       <c r="E2">
-        <v>0.02822172188436023</v>
+        <v>0.04428252000315158</v>
       </c>
       <c r="F2">
-        <v>2.802728767501094</v>
+        <v>0.8257147970531449</v>
       </c>
       <c r="G2">
-        <v>0.000847080420228761</v>
+        <v>0.0008194733792321951</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.07877530497297958</v>
+        <v>0.07234001756131825</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1413584297778669</v>
+        <v>0.1823125291594323</v>
       </c>
       <c r="M2">
-        <v>0.4275366249034249</v>
+        <v>0.448616283310777</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.124391631161714</v>
+        <v>2.185867545468028</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.273181779734898</v>
+        <v>2.25113016610419</v>
       </c>
       <c r="C3">
-        <v>0.3199677433434545</v>
+        <v>0.3672954467751595</v>
       </c>
       <c r="D3">
-        <v>0.005255201557295308</v>
+        <v>0.04669776508154655</v>
       </c>
       <c r="E3">
-        <v>0.02818743519524336</v>
+        <v>0.04561278760036958</v>
       </c>
       <c r="F3">
-        <v>2.6497071704365</v>
+        <v>0.8155902390796754</v>
       </c>
       <c r="G3">
-        <v>0.0008554171571121261</v>
+        <v>0.0008241029987866577</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.08003418777486893</v>
+        <v>0.07479472734311621</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1303252082913176</v>
+        <v>0.1652883771731553</v>
       </c>
       <c r="M3">
-        <v>0.3784136204187618</v>
+        <v>0.3924467491410795</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.004319492827335</v>
+        <v>2.168827825521646</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.08157425285043</v>
+        <v>2.046098475365682</v>
       </c>
       <c r="C4">
-        <v>0.2901215779726272</v>
+        <v>0.3442324910015486</v>
       </c>
       <c r="D4">
-        <v>0.004682522034023862</v>
+        <v>0.04508835318223348</v>
       </c>
       <c r="E4">
-        <v>0.02817262268977261</v>
+        <v>0.04647364121921083</v>
       </c>
       <c r="F4">
-        <v>2.560390467894422</v>
+        <v>0.811226515488876</v>
       </c>
       <c r="G4">
-        <v>0.000860680611621455</v>
+        <v>0.0008270394320290552</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.08083450507336032</v>
+        <v>0.07637138204609428</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1237368344662002</v>
+        <v>0.1549475941228806</v>
       </c>
       <c r="M4">
-        <v>0.3488194586530611</v>
+        <v>0.3581038379216963</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.934213705387762</v>
+        <v>2.163820731290457</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.004242854513222</v>
+        <v>1.962667244409317</v>
       </c>
       <c r="C5">
-        <v>0.2780171158777591</v>
+        <v>0.3348336864800388</v>
       </c>
       <c r="D5">
-        <v>0.004454494643972851</v>
+        <v>0.04443984368848319</v>
       </c>
       <c r="E5">
-        <v>0.02816804490865965</v>
+        <v>0.0468354255394261</v>
       </c>
       <c r="F5">
-        <v>2.525071085987534</v>
+        <v>0.8098940876069989</v>
       </c>
       <c r="G5">
-        <v>0.0008628633108315576</v>
+        <v>0.0008282601039736455</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.08116748436066779</v>
+        <v>0.07703116705056345</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1210954372121478</v>
+        <v>0.1507596875895345</v>
       </c>
       <c r="M5">
-        <v>0.3368878740679904</v>
+        <v>0.3441395110958538</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.906484056210289</v>
+        <v>2.163090705067759</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.991444771096951</v>
+        <v>1.94881990945629</v>
       </c>
       <c r="C6">
-        <v>0.2760103046845472</v>
+        <v>0.3332729097669045</v>
       </c>
       <c r="D6">
-        <v>0.004416927126815295</v>
+        <v>0.04433259290658143</v>
       </c>
       <c r="E6">
-        <v>0.0281673698396625</v>
+        <v>0.04689615980904804</v>
       </c>
       <c r="F6">
-        <v>2.51926896601816</v>
+        <v>0.8096991979989028</v>
       </c>
       <c r="G6">
-        <v>0.0008632280689547143</v>
+        <v>0.0008284642614368459</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.08122318763902747</v>
+        <v>0.07714176279800711</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1206593641361948</v>
+        <v>0.1500658017850753</v>
       </c>
       <c r="M6">
-        <v>0.3349139906831553</v>
+        <v>0.3418224340966134</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.901928270019596</v>
+        <v>2.163046894777381</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.080528414323453</v>
+        <v>2.044972846172755</v>
       </c>
       <c r="C7">
-        <v>0.2899581152207418</v>
+        <v>0.3441057411601918</v>
       </c>
       <c r="D7">
-        <v>0.004679426348831228</v>
+        <v>0.04507957787514627</v>
       </c>
       <c r="E7">
-        <v>0.02817255518488404</v>
+        <v>0.04647847604361566</v>
       </c>
       <c r="F7">
-        <v>2.559909886305135</v>
+        <v>0.8112067665570351</v>
       </c>
       <c r="G7">
-        <v>0.000860709893438074</v>
+        <v>0.0008270557964313898</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.08083896808501301</v>
+        <v>0.07638021037816323</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1237010401178935</v>
+        <v>0.1548910118314026</v>
       </c>
       <c r="M7">
-        <v>0.3486580439955418</v>
+        <v>0.357915393367719</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.933836426377042</v>
+        <v>2.16380565893985</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.480468580789591</v>
+        <v>2.470425243277248</v>
       </c>
       <c r="C8">
-        <v>0.3520536054233219</v>
+        <v>0.3919126707035616</v>
       </c>
       <c r="D8">
-        <v>0.005887257213432306</v>
+        <v>0.04844119482420695</v>
       </c>
       <c r="E8">
-        <v>0.02820853450732075</v>
+        <v>0.04473198918063881</v>
       </c>
       <c r="F8">
-        <v>2.748948506274473</v>
+        <v>0.8218268920313747</v>
       </c>
       <c r="G8">
-        <v>0.0008499257908337984</v>
+        <v>0.0008210504807057984</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.07920366742524898</v>
+        <v>0.07317187598819341</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1375134388515278</v>
+        <v>0.1764179949498939</v>
       </c>
       <c r="M8">
-        <v>0.4104721407417884</v>
+        <v>0.4292151785899208</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.082195144184936</v>
+        <v>2.178822033431146</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.295996625910448</v>
+        <v>3.311277814192522</v>
       </c>
       <c r="C9">
-        <v>0.4767882176585658</v>
+        <v>0.4858959280107342</v>
       </c>
       <c r="D9">
-        <v>0.008503488695602357</v>
+        <v>0.05529243448423671</v>
       </c>
       <c r="E9">
-        <v>0.02833427121712728</v>
+        <v>0.04166141798095024</v>
       </c>
       <c r="F9">
-        <v>3.160857452134593</v>
+        <v>0.8583148776969338</v>
       </c>
       <c r="G9">
-        <v>0.0008298558765001337</v>
+        <v>0.0008099966011429881</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.07621558961136277</v>
+        <v>0.06743985923599105</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1662443451258326</v>
+        <v>0.2196275062542981</v>
       </c>
       <c r="M9">
-        <v>0.5369146116175827</v>
+        <v>0.5704785513323145</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.405361624397457</v>
+        <v>2.254493554155431</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.921449094374566</v>
+        <v>3.935591715992302</v>
       </c>
       <c r="C10">
-        <v>0.5713281019979206</v>
+        <v>0.5553251477908816</v>
       </c>
       <c r="D10">
-        <v>0.01065357965122971</v>
+        <v>0.06050968680240487</v>
       </c>
       <c r="E10">
-        <v>0.02846942882732495</v>
+        <v>0.03962811586526627</v>
       </c>
       <c r="F10">
-        <v>3.495407152941311</v>
+        <v>0.8960956261616388</v>
       </c>
       <c r="G10">
-        <v>0.0008156594773381021</v>
+        <v>0.000802283215269028</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.0741560576521394</v>
+        <v>0.06358197349308981</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.1886180070967072</v>
+        <v>0.2521406182018637</v>
       </c>
       <c r="M10">
-        <v>0.6341219612218723</v>
+        <v>0.6755899606826645</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.667893363429116</v>
+        <v>2.34262915628301</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.213537601445807</v>
+        <v>4.221648724824888</v>
       </c>
       <c r="C11">
-        <v>0.6152461419744384</v>
+        <v>0.587050974769312</v>
       </c>
       <c r="D11">
-        <v>0.01170142835429999</v>
+        <v>0.06292927115585201</v>
       </c>
       <c r="E11">
-        <v>0.02854266301509711</v>
+        <v>0.03875301929119068</v>
       </c>
       <c r="F11">
-        <v>3.656262774197842</v>
+        <v>0.916007420020037</v>
       </c>
       <c r="G11">
-        <v>0.0008092931704329654</v>
+        <v>0.0007988550491771033</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07324925250195946</v>
+        <v>0.06190663382934858</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.1991378747968184</v>
+        <v>0.2671370642592592</v>
       </c>
       <c r="M11">
-        <v>0.6795668860191313</v>
+        <v>0.7238035855576399</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.794163136737154</v>
+        <v>2.390836903067594</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.325407400703227</v>
+        <v>4.330321487220203</v>
       </c>
       <c r="C12">
-        <v>0.6320346237063461</v>
+        <v>0.5990903377146708</v>
       </c>
       <c r="D12">
-        <v>0.01211023657039334</v>
+        <v>0.06385270908646845</v>
       </c>
       <c r="E12">
-        <v>0.02857233045736507</v>
+        <v>0.038428955328349</v>
       </c>
       <c r="F12">
-        <v>3.71858545001183</v>
+        <v>0.9239702363680209</v>
       </c>
       <c r="G12">
-        <v>0.000806893045376926</v>
+        <v>0.0007975678152920475</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.0729102625421536</v>
+        <v>0.06128395429931111</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2031769771922995</v>
+        <v>0.2728489130339824</v>
       </c>
       <c r="M12">
-        <v>0.6969790482520608</v>
+        <v>0.7421276442022133</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.84309423962452</v>
+        <v>2.410353555245109</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.301255094801888</v>
+        <v>4.306900427338576</v>
       </c>
       <c r="C13">
-        <v>0.6284114499896134</v>
+        <v>0.5964962271784771</v>
       </c>
       <c r="D13">
-        <v>0.01202162360347359</v>
+        <v>0.06365350107584788</v>
       </c>
       <c r="E13">
-        <v>0.02856585063505956</v>
+        <v>0.03849842049544971</v>
       </c>
       <c r="F13">
-        <v>3.705097604659784</v>
+        <v>0.9222359880468787</v>
       </c>
       <c r="G13">
-        <v>0.0008074095248978332</v>
+        <v>0.0007978445687778584</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.07298307327667253</v>
+        <v>0.06141753279047357</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2023045094891245</v>
+        <v>0.2716172387488598</v>
       </c>
       <c r="M13">
-        <v>0.6932195257089333</v>
+        <v>0.7381781102777794</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.832504170578417</v>
+        <v>2.406092606790224</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.222714825865864</v>
+        <v>4.230581975627842</v>
       </c>
       <c r="C14">
-        <v>0.6166240156108813</v>
+        <v>0.5880409192675415</v>
       </c>
       <c r="D14">
-        <v>0.01173480817415395</v>
+        <v>0.0630050954853516</v>
       </c>
       <c r="E14">
-        <v>0.02854506344028662</v>
+        <v>0.03872621086032257</v>
       </c>
       <c r="F14">
-        <v>3.661360826629931</v>
+        <v>0.9166538703023264</v>
       </c>
       <c r="G14">
-        <v>0.0008090955126921282</v>
+        <v>0.0007987489324591589</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.07322127501891718</v>
+        <v>0.06185516871229346</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.199469024028545</v>
+        <v>0.2676062993444219</v>
       </c>
       <c r="M14">
-        <v>0.6809951567690504</v>
+        <v>0.7253097255038838</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.798165560800697</v>
+        <v>2.392416700634413</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.174776556804773</v>
+        <v>4.183881869667971</v>
       </c>
       <c r="C15">
-        <v>0.6094252543728089</v>
+        <v>0.5828652745848331</v>
       </c>
       <c r="D15">
-        <v>0.01156075322465355</v>
+        <v>0.06260888216779392</v>
       </c>
       <c r="E15">
-        <v>0.02853259066956981</v>
+        <v>0.03886669629370543</v>
       </c>
       <c r="F15">
-        <v>3.634759633743386</v>
+        <v>0.9132906580135227</v>
       </c>
       <c r="G15">
-        <v>0.0008101295367198199</v>
+        <v>0.0007993042852650642</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.07336775542464302</v>
+        <v>0.06212477043293596</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.1977396288831983</v>
+        <v>0.2651538885330069</v>
       </c>
       <c r="M15">
-        <v>0.6735346937981177</v>
+        <v>0.7174364339529902</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.777281618707107</v>
+        <v>2.384207021867752</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.902527092689922</v>
+        <v>3.91694304562418</v>
       </c>
       <c r="C16">
-        <v>0.5684784925021518</v>
+        <v>0.5532550715136324</v>
       </c>
       <c r="D16">
-        <v>0.01058666684253851</v>
+        <v>0.06035253719930722</v>
       </c>
       <c r="E16">
-        <v>0.02846489936498886</v>
+        <v>0.03968632112338222</v>
       </c>
       <c r="F16">
-        <v>3.485082822256487</v>
+        <v>0.8948517581074071</v>
       </c>
       <c r="G16">
-        <v>0.0008160771663069643</v>
+        <v>0.0008025088219406275</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.07421593077170385</v>
+        <v>0.06369308709158972</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.1879379103255587</v>
+        <v>0.2511649952741948</v>
       </c>
       <c r="M16">
-        <v>0.6311789110487354</v>
+        <v>0.6724478789419877</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.659789910640228</v>
+        <v>2.339649867932735</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.737566287819391</v>
+        <v>3.753747638481343</v>
       </c>
       <c r="C17">
-        <v>0.5436102980569615</v>
+        <v>0.5351300250735278</v>
       </c>
       <c r="D17">
-        <v>0.01000828537168985</v>
+        <v>0.05898055781667466</v>
       </c>
       <c r="E17">
-        <v>0.02842654534435818</v>
+        <v>0.04020200652980987</v>
       </c>
       <c r="F17">
-        <v>3.395591301850004</v>
+        <v>0.8842592324166958</v>
       </c>
       <c r="G17">
-        <v>0.0008197476230396339</v>
+        <v>0.0008044949099338317</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.0747440122941212</v>
+        <v>0.06467578979708932</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.1820166988364775</v>
+        <v>0.242638367826018</v>
       </c>
       <c r="M17">
-        <v>0.605526933527166</v>
+        <v>0.644957213424604</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.589553800831126</v>
+        <v>2.314458808523653</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.643385841643408</v>
+        <v>3.660071758490119</v>
       </c>
       <c r="C18">
-        <v>0.529390771572082</v>
+        <v>0.5247180281051556</v>
       </c>
       <c r="D18">
-        <v>0.009682047990754228</v>
+        <v>0.058195747686554</v>
       </c>
       <c r="E18">
-        <v>0.02840557431524315</v>
+        <v>0.04050329921648643</v>
       </c>
       <c r="F18">
-        <v>3.344923052621425</v>
+        <v>0.8784212178346706</v>
       </c>
       <c r="G18">
-        <v>0.0008218675722954824</v>
+        <v>0.0008056448927249723</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.07505057789953185</v>
+        <v>0.06524849148329714</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.1786427451960435</v>
+        <v>0.2377532550005981</v>
       </c>
       <c r="M18">
-        <v>0.5908860794350019</v>
+        <v>0.6291821575885805</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.549791167580949</v>
+        <v>2.300727263813826</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.611613332963771</v>
+        <v>3.628385743010654</v>
       </c>
       <c r="C19">
-        <v>0.5245899548185378</v>
+        <v>0.5211947996433537</v>
       </c>
       <c r="D19">
-        <v>0.009572638589155247</v>
+        <v>0.05793074984617874</v>
       </c>
       <c r="E19">
-        <v>0.02839865408849362</v>
+        <v>0.04060611193484931</v>
       </c>
       <c r="F19">
-        <v>3.327901222984536</v>
+        <v>0.8764873816277117</v>
       </c>
       <c r="G19">
-        <v>0.0008225869343877283</v>
+        <v>0.0008060355884145351</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.07515485928859356</v>
+        <v>0.06544367431379605</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.1775056597710218</v>
+        <v>0.2361024346659093</v>
       </c>
       <c r="M19">
-        <v>0.5859476579768099</v>
+        <v>0.6238470497720172</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.536433588467062</v>
+        <v>2.296205368571691</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.755052939148129</v>
+        <v>3.771100048035521</v>
       </c>
       <c r="C20">
-        <v>0.5462486839429914</v>
+        <v>0.5370580814024493</v>
       </c>
       <c r="D20">
-        <v>0.01006917590170886</v>
+        <v>0.05912615684881217</v>
       </c>
       <c r="E20">
-        <v>0.02843051381195427</v>
+        <v>0.040146625124585</v>
       </c>
       <c r="F20">
-        <v>3.405033398330289</v>
+        <v>0.8853602669026372</v>
       </c>
       <c r="G20">
-        <v>0.0008193560033877699</v>
+        <v>0.0008042827016539342</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.07468750403833013</v>
+        <v>0.06457040357593691</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.1826436906580611</v>
+        <v>0.243544033364671</v>
       </c>
       <c r="M20">
-        <v>0.6082456996830317</v>
+        <v>0.6478797625266637</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.596963899461883</v>
+        <v>2.31706136033543</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.24574825512218</v>
+        <v>4.252988626446665</v>
       </c>
       <c r="C21">
-        <v>0.6200817622056434</v>
+        <v>0.5905237142278281</v>
       </c>
       <c r="D21">
-        <v>0.01181870964280307</v>
+        <v>0.06319534810860006</v>
       </c>
       <c r="E21">
-        <v>0.02855111446723058</v>
+        <v>0.03865910354378599</v>
       </c>
       <c r="F21">
-        <v>3.674167701815605</v>
+        <v>0.918281745745702</v>
       </c>
       <c r="G21">
-        <v>0.0008086000296756507</v>
+        <v>0.0007984830076199677</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.07315118943076193</v>
+        <v>0.06172630356924103</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2003003158833394</v>
+        <v>0.2687834849604798</v>
       </c>
       <c r="M21">
-        <v>0.6845800045837365</v>
+        <v>0.7290875957530645</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.808220240023346</v>
+        <v>2.396398620257713</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.573900252726048</v>
+        <v>4.569994259915632</v>
       </c>
       <c r="C22">
-        <v>0.6692699486554829</v>
+        <v>0.625617782235679</v>
       </c>
       <c r="D22">
-        <v>0.01303327501055662</v>
+        <v>0.065897017832107</v>
       </c>
       <c r="E22">
-        <v>0.02864135802406709</v>
+        <v>0.03772964042172955</v>
       </c>
       <c r="F22">
-        <v>3.858373096969501</v>
+        <v>0.9422774224514114</v>
       </c>
       <c r="G22">
-        <v>0.0008016310971215842</v>
+        <v>0.0007947559849769598</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.07217279144890387</v>
+        <v>0.05993606960639042</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2121666760502592</v>
+        <v>0.2854731648936735</v>
       </c>
       <c r="M22">
-        <v>0.7356680888766007</v>
+        <v>0.7825547593394759</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.952863606330297</v>
+        <v>2.45565204227637</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.398013943551177</v>
+        <v>4.400594576147796</v>
       </c>
       <c r="C23">
-        <v>0.6429220972215148</v>
+        <v>0.606871800702919</v>
       </c>
       <c r="D23">
-        <v>0.01237779702768904</v>
+        <v>0.06445103045333411</v>
       </c>
       <c r="E23">
-        <v>0.0285920561829941</v>
+        <v>0.03822175307800935</v>
       </c>
       <c r="F23">
-        <v>3.759239241608753</v>
+        <v>0.9292327903211515</v>
       </c>
       <c r="G23">
-        <v>0.0008053459086810835</v>
+        <v>0.0007967395972055881</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.0726926056304027</v>
+        <v>0.06088517917985392</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2058011984956494</v>
+        <v>0.2765466039477644</v>
       </c>
       <c r="M23">
-        <v>0.7082818580496024</v>
+        <v>0.7539790485100895</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.875015262446681</v>
+        <v>2.423316866921084</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.747145188318768</v>
+        <v>3.763254568785555</v>
       </c>
       <c r="C24">
-        <v>0.5450556301625511</v>
+        <v>0.5361863815544723</v>
       </c>
       <c r="D24">
-        <v>0.01004162787240048</v>
+        <v>0.05906031923527166</v>
       </c>
       <c r="E24">
-        <v>0.02842871632426269</v>
+        <v>0.04017164806094486</v>
       </c>
       <c r="F24">
-        <v>3.400762204071981</v>
+        <v>0.8848617073044664</v>
       </c>
       <c r="G24">
-        <v>0.0008195330240776677</v>
+        <v>0.0008043786155508096</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.07471304219235186</v>
+        <v>0.06461802462188615</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.1823601339616587</v>
+        <v>0.2431345294044576</v>
       </c>
       <c r="M24">
-        <v>0.6070162148162979</v>
+        <v>0.6465583862877224</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.593611881656642</v>
+        <v>2.315882414118704</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.071329363948053</v>
+        <v>3.082852880405312</v>
       </c>
       <c r="C25">
-        <v>0.4426216182055782</v>
+        <v>0.460422620457166</v>
       </c>
       <c r="D25">
-        <v>0.007761854613516306</v>
+        <v>0.0534087187167529</v>
       </c>
       <c r="E25">
-        <v>0.02829348315790048</v>
+        <v>0.04245349458222636</v>
       </c>
       <c r="F25">
-        <v>3.04435480225456</v>
+        <v>0.8466259820700799</v>
       </c>
       <c r="G25">
-        <v>0.0008351804594820053</v>
+        <v>0.000812912861502881</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.07700029067969982</v>
+        <v>0.06892940482875076</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1582703772435679</v>
+        <v>0.2078157985549751</v>
       </c>
       <c r="M25">
-        <v>0.5020403258353099</v>
+        <v>0.5320645357250768</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.313957492144908</v>
+        <v>2.228642000014986</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_41/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_41/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.586056266532012</v>
+        <v>2.613080362379833</v>
       </c>
       <c r="C2">
-        <v>0.4048736721508135</v>
+        <v>0.4519946018466783</v>
       </c>
       <c r="D2">
-        <v>0.04936867478996732</v>
+        <v>0.08621092120230855</v>
       </c>
       <c r="E2">
-        <v>0.04428252000315158</v>
+        <v>0.05701820044041961</v>
       </c>
       <c r="F2">
-        <v>0.8257147970531449</v>
+        <v>0.5060702337488152</v>
       </c>
       <c r="G2">
-        <v>0.0008194733792321951</v>
+        <v>0.2957018602522012</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.002163915744438638</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.07234001756131825</v>
+        <v>0.2779633408518549</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.2546919573023754</v>
       </c>
       <c r="L2">
-        <v>0.1823125291594323</v>
+        <v>0.08375617773557309</v>
       </c>
       <c r="M2">
-        <v>0.448616283310777</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.2231407990405856</v>
       </c>
       <c r="O2">
-        <v>2.185867545468028</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.4634901940210483</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>1.156897113314216</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.25113016610419</v>
+        <v>2.277207620597153</v>
       </c>
       <c r="C3">
-        <v>0.3672954467751595</v>
+        <v>0.4097912254170808</v>
       </c>
       <c r="D3">
-        <v>0.04669776508154655</v>
+        <v>0.08135168249681612</v>
       </c>
       <c r="E3">
-        <v>0.04561278760036958</v>
+        <v>0.05663758284625731</v>
       </c>
       <c r="F3">
-        <v>0.8155902390796754</v>
+        <v>0.4992590260624183</v>
       </c>
       <c r="G3">
-        <v>0.0008241029987866577</v>
+        <v>0.2904270739917649</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.003547859978100421</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.07479472734311621</v>
+        <v>0.2807203989830924</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.2669419329442526</v>
       </c>
       <c r="L3">
-        <v>0.1652883771731553</v>
+        <v>0.08206766128364862</v>
       </c>
       <c r="M3">
-        <v>0.3924467491410795</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.2006791467636475</v>
       </c>
       <c r="O3">
-        <v>2.168827825521646</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.4045320852481709</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>1.151165071016734</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.046098475365682</v>
+        <v>2.070661437524109</v>
       </c>
       <c r="C4">
-        <v>0.3442324910015486</v>
+        <v>0.3838227992652605</v>
       </c>
       <c r="D4">
-        <v>0.04508835318223348</v>
+        <v>0.07839265991304956</v>
       </c>
       <c r="E4">
-        <v>0.04647364121921083</v>
+        <v>0.05640225764548878</v>
       </c>
       <c r="F4">
-        <v>0.811226515488876</v>
+        <v>0.495905898767937</v>
       </c>
       <c r="G4">
-        <v>0.0008270394320290552</v>
+        <v>0.2878670377662189</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.004603334982954121</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.07637138204609428</v>
+        <v>0.2828479937285024</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.2750406501331479</v>
       </c>
       <c r="L4">
-        <v>0.1549475941228806</v>
+        <v>0.08100414018313806</v>
       </c>
       <c r="M4">
-        <v>0.3581038379216963</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.1868748443186163</v>
       </c>
       <c r="O4">
-        <v>2.163820731290457</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.368290779003118</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>1.149986262899404</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.962667244409317</v>
+        <v>1.98640022431556</v>
       </c>
       <c r="C5">
-        <v>0.3348336864800388</v>
+        <v>0.3732253827083696</v>
       </c>
       <c r="D5">
-        <v>0.04443984368848319</v>
+        <v>0.0771927035027602</v>
       </c>
       <c r="E5">
-        <v>0.0468354255394261</v>
+        <v>0.05630584583842779</v>
       </c>
       <c r="F5">
-        <v>0.8098940876069989</v>
+        <v>0.4947406546094655</v>
       </c>
       <c r="G5">
-        <v>0.0008282601039736455</v>
+        <v>0.2869872641582631</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.005082760187244684</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.07703116705056345</v>
+        <v>0.2838211561320065</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.2784818125048485</v>
       </c>
       <c r="L5">
-        <v>0.1507596875895345</v>
+        <v>0.08056391703428289</v>
       </c>
       <c r="M5">
-        <v>0.3441395110958538</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.1812450980263804</v>
       </c>
       <c r="O5">
-        <v>2.163090705067759</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.3535096456985514</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>1.15007255198276</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.94881990945629</v>
+        <v>1.972402834133959</v>
       </c>
       <c r="C6">
-        <v>0.3332729097669045</v>
+        <v>0.3714647482788962</v>
       </c>
       <c r="D6">
-        <v>0.04433259290658143</v>
+        <v>0.07699379743012713</v>
       </c>
       <c r="E6">
-        <v>0.04689615980904804</v>
+        <v>0.05628980260751737</v>
       </c>
       <c r="F6">
-        <v>0.8096991979989028</v>
+        <v>0.494559109964122</v>
       </c>
       <c r="G6">
-        <v>0.0008284642614368459</v>
+        <v>0.2868508455119425</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.005165277275833879</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.07714176279800711</v>
+        <v>0.2839890697216987</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.2790616010234928</v>
       </c>
       <c r="L6">
-        <v>0.1500658017850753</v>
+        <v>0.08049040305952992</v>
       </c>
       <c r="M6">
-        <v>0.3418224340966134</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.1803099852831735</v>
       </c>
       <c r="O6">
-        <v>2.163046894777381</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.3510544318242381</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>1.150120479575847</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.044972846172755</v>
+        <v>2.069525448570914</v>
       </c>
       <c r="C7">
-        <v>0.3441057411601918</v>
+        <v>0.3836799412543428</v>
       </c>
       <c r="D7">
-        <v>0.04507957787514627</v>
+        <v>0.07837645351293077</v>
       </c>
       <c r="E7">
-        <v>0.04647847604361566</v>
+        <v>0.05640095962427027</v>
       </c>
       <c r="F7">
-        <v>0.8112067665570351</v>
+        <v>0.4958893787143595</v>
       </c>
       <c r="G7">
-        <v>0.0008270557964313898</v>
+        <v>0.2878545203056433</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.004609604165504599</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.07638021037816323</v>
+        <v>0.282860692441794</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.2750864940084838</v>
       </c>
       <c r="L7">
-        <v>0.1548910118314026</v>
+        <v>0.08099823095903247</v>
       </c>
       <c r="M7">
-        <v>0.357915393367719</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.1867989388347269</v>
       </c>
       <c r="O7">
-        <v>2.16380565893985</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.3680914889655469</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>1.149985160602569</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.470425243277248</v>
+        <v>2.497330172404418</v>
       </c>
       <c r="C8">
-        <v>0.3919126707035616</v>
+        <v>0.4374536334431696</v>
       </c>
       <c r="D8">
-        <v>0.04844119482420695</v>
+        <v>0.0845301638339393</v>
       </c>
       <c r="E8">
-        <v>0.04473198918063881</v>
+        <v>0.05688723515179683</v>
       </c>
       <c r="F8">
-        <v>0.8218268920313747</v>
+        <v>0.50354521322366</v>
       </c>
       <c r="G8">
-        <v>0.0008210504807057984</v>
+        <v>0.2937378288787755</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.002596920077065634</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.07317187598819341</v>
+        <v>0.2788217969959916</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.2587933430812175</v>
       </c>
       <c r="L8">
-        <v>0.1764179949498939</v>
+        <v>0.08317946988349512</v>
       </c>
       <c r="M8">
-        <v>0.4292151785899208</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.2153979370611125</v>
       </c>
       <c r="O8">
-        <v>2.178822033431146</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.4431684817549524</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>1.154421445114806</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.311277814192522</v>
+        <v>3.334341642578238</v>
       </c>
       <c r="C9">
-        <v>0.4858959280107342</v>
+        <v>0.5425271418989155</v>
       </c>
       <c r="D9">
-        <v>0.05529243448423671</v>
+        <v>0.09680787475404884</v>
       </c>
       <c r="E9">
-        <v>0.04166141798095024</v>
+        <v>0.05783297717838742</v>
       </c>
       <c r="F9">
-        <v>0.8583148776969338</v>
+        <v>0.5254777925209524</v>
       </c>
       <c r="G9">
-        <v>0.0008099966011429881</v>
+        <v>0.310998762763063</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.0003950738221342176</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.06743985923599105</v>
+        <v>0.2744998676276609</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.2316206726831211</v>
       </c>
       <c r="L9">
-        <v>0.2196275062542981</v>
+        <v>0.08724951056570873</v>
       </c>
       <c r="M9">
-        <v>0.5704785513323145</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.2714378967220625</v>
       </c>
       <c r="O9">
-        <v>2.254493554155431</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.5901873698252302</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>1.18272312584098</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.935591715992302</v>
+        <v>3.952282290478081</v>
       </c>
       <c r="C10">
-        <v>0.5553251477908816</v>
+        <v>0.6246340076478418</v>
       </c>
       <c r="D10">
-        <v>0.06050968680240487</v>
+        <v>0.1044922171823828</v>
       </c>
       <c r="E10">
-        <v>0.03962811586526627</v>
+        <v>0.0579356603950556</v>
       </c>
       <c r="F10">
-        <v>0.8960956261616388</v>
+        <v>0.5385468013668486</v>
       </c>
       <c r="G10">
-        <v>0.000802283215269028</v>
+        <v>0.3222271991276671</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.0001879998620406553</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.06358197349308981</v>
+        <v>0.2709643465903824</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.212141270071097</v>
       </c>
       <c r="L10">
-        <v>0.2521406182018637</v>
+        <v>0.09138521108159381</v>
       </c>
       <c r="M10">
-        <v>0.6755899606826645</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.3046543870840566</v>
       </c>
       <c r="O10">
-        <v>2.34262915628301</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.6937074358490136</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>1.19963903554104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.221648724824888</v>
+        <v>4.262040499275656</v>
       </c>
       <c r="C11">
-        <v>0.587050974769312</v>
+        <v>0.7081332962993656</v>
       </c>
       <c r="D11">
-        <v>0.06292927115585201</v>
+        <v>0.09546586310798943</v>
       </c>
       <c r="E11">
-        <v>0.03875301929119068</v>
+        <v>0.05524711620288181</v>
       </c>
       <c r="F11">
-        <v>0.916007420020037</v>
+        <v>0.4801720983884437</v>
       </c>
       <c r="G11">
-        <v>0.0007988550491771033</v>
+        <v>0.2825643011990024</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.01875818619411262</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.06190663382934858</v>
+        <v>0.2465054856127296</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.1825972632194528</v>
       </c>
       <c r="L11">
-        <v>0.2671370642592592</v>
+        <v>0.1097862771427103</v>
       </c>
       <c r="M11">
-        <v>0.7238035855576399</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.2537597339242694</v>
       </c>
       <c r="O11">
-        <v>2.390836903067594</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.7009979874863603</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>1.064548322801187</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.330321487220203</v>
+        <v>4.394098496590857</v>
       </c>
       <c r="C12">
-        <v>0.5990903377146708</v>
+        <v>0.7645246600880853</v>
       </c>
       <c r="D12">
-        <v>0.06385270908646845</v>
+        <v>0.08666770171922877</v>
       </c>
       <c r="E12">
-        <v>0.038428955328349</v>
+        <v>0.05622298164531614</v>
       </c>
       <c r="F12">
-        <v>0.9239702363680209</v>
+        <v>0.4301367807236147</v>
       </c>
       <c r="G12">
-        <v>0.0007975678152920475</v>
+        <v>0.2481773314609441</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.05742275032442734</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.06128395429931111</v>
+        <v>0.2271526543757432</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.164224953318298</v>
       </c>
       <c r="L12">
-        <v>0.2728489130339824</v>
+        <v>0.1319957065686168</v>
       </c>
       <c r="M12">
-        <v>0.7421276442022133</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.2085702855184621</v>
       </c>
       <c r="O12">
-        <v>2.410353555245109</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.6847661754006111</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0.9511987175857541</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.306900427338576</v>
+        <v>4.39569414322284</v>
       </c>
       <c r="C13">
-        <v>0.5964962271784771</v>
+        <v>0.8026388200549093</v>
       </c>
       <c r="D13">
-        <v>0.06365350107584788</v>
+        <v>0.07757000691362492</v>
       </c>
       <c r="E13">
-        <v>0.03849842049544971</v>
+        <v>0.05995391795909466</v>
       </c>
       <c r="F13">
-        <v>0.9222359880468787</v>
+        <v>0.3833874327918281</v>
       </c>
       <c r="G13">
-        <v>0.0007978445687778584</v>
+        <v>0.2156177212304939</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1131469168727506</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.06141753279047357</v>
+        <v>0.210446429988032</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.1530102416086612</v>
       </c>
       <c r="L13">
-        <v>0.2716172387488598</v>
+        <v>0.1580057953161003</v>
       </c>
       <c r="M13">
-        <v>0.7381781102777794</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.1654059425010104</v>
       </c>
       <c r="O13">
-        <v>2.406092606790224</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.6496188991673861</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0.8471638740147824</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.230581975627842</v>
+        <v>4.337621287970592</v>
       </c>
       <c r="C14">
-        <v>0.5880409192675415</v>
+        <v>0.8210621342638547</v>
       </c>
       <c r="D14">
-        <v>0.0630050954853516</v>
+        <v>0.07118406159393942</v>
       </c>
       <c r="E14">
-        <v>0.03872621086032257</v>
+        <v>0.06417393352365863</v>
       </c>
       <c r="F14">
-        <v>0.9166538703023264</v>
+        <v>0.3526911123388174</v>
       </c>
       <c r="G14">
-        <v>0.0007987489324591589</v>
+        <v>0.1940414371071881</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1624783448496601</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.06185516871229346</v>
+        <v>0.2001134938724292</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.1487215561912789</v>
       </c>
       <c r="L14">
-        <v>0.2676062993444219</v>
+        <v>0.1786396865677062</v>
       </c>
       <c r="M14">
-        <v>0.7253097255038838</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.1370350661150042</v>
       </c>
       <c r="O14">
-        <v>2.392416700634413</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.6166341968770297</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0.7797202518982829</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.183881869667971</v>
+        <v>4.295416982634265</v>
       </c>
       <c r="C15">
-        <v>0.5828652745848331</v>
+        <v>0.8211071214792582</v>
       </c>
       <c r="D15">
-        <v>0.06260888216779392</v>
+        <v>0.06952131213178347</v>
       </c>
       <c r="E15">
-        <v>0.03886669629370543</v>
+        <v>0.0653394623867527</v>
       </c>
       <c r="F15">
-        <v>0.9132906580135227</v>
+        <v>0.3456847177164306</v>
       </c>
       <c r="G15">
-        <v>0.0007993042852650642</v>
+        <v>0.1890004583747711</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1749846659851215</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.06212477043293596</v>
+        <v>0.1980929574530776</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.1488510322156289</v>
       </c>
       <c r="L15">
-        <v>0.2651538885330069</v>
+        <v>0.1834014701544788</v>
       </c>
       <c r="M15">
-        <v>0.7174364339529902</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.130008052701875</v>
       </c>
       <c r="O15">
-        <v>2.384207021867752</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.6047017128441681</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0.7647640525178474</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.91694304562418</v>
+        <v>4.027227267225612</v>
       </c>
       <c r="C16">
-        <v>0.5532550715136324</v>
+        <v>0.7762244751452272</v>
       </c>
       <c r="D16">
-        <v>0.06035253719930722</v>
+        <v>0.06825771288347227</v>
       </c>
       <c r="E16">
-        <v>0.03968632112338222</v>
+        <v>0.06428216991681879</v>
       </c>
       <c r="F16">
-        <v>0.8948517581074071</v>
+        <v>0.3492908818633538</v>
       </c>
       <c r="G16">
-        <v>0.0008025088219406275</v>
+        <v>0.1903944435051343</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1622809200413826</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.06369308709158972</v>
+        <v>0.2026675491446639</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.1585560167225211</v>
       </c>
       <c r="L16">
-        <v>0.2511649952741948</v>
+        <v>0.175259469133529</v>
       </c>
       <c r="M16">
-        <v>0.6724478789419877</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.125739392797918</v>
       </c>
       <c r="O16">
-        <v>2.339649867932735</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.5681755655484935</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0.7770818620217881</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.753747638481343</v>
+        <v>3.853013361135368</v>
       </c>
       <c r="C17">
-        <v>0.5351300250735278</v>
+        <v>0.7321587744143301</v>
       </c>
       <c r="D17">
-        <v>0.05898055781667466</v>
+        <v>0.07060822710492687</v>
       </c>
       <c r="E17">
-        <v>0.04020200652980987</v>
+        <v>0.06100162541748588</v>
       </c>
       <c r="F17">
-        <v>0.8842592324166958</v>
+        <v>0.3682926275659781</v>
       </c>
       <c r="G17">
-        <v>0.0008044949099338317</v>
+        <v>0.2029146997477298</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1245691516666625</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.06467578979708932</v>
+        <v>0.2117047508409158</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.16828631747501</v>
       </c>
       <c r="L17">
-        <v>0.242638367826018</v>
+        <v>0.1576263379122764</v>
       </c>
       <c r="M17">
-        <v>0.644957213424604</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.136876530758407</v>
       </c>
       <c r="O17">
-        <v>2.314458808523653</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.557598492679837</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0.8224171589823754</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.660071758490119</v>
+        <v>3.73974541950156</v>
       </c>
       <c r="C18">
-        <v>0.5247180281051556</v>
+        <v>0.6850240892838713</v>
       </c>
       <c r="D18">
-        <v>0.058195747686554</v>
+        <v>0.07659773137648074</v>
       </c>
       <c r="E18">
-        <v>0.04050329921648643</v>
+        <v>0.05699005241069433</v>
       </c>
       <c r="F18">
-        <v>0.8784212178346706</v>
+        <v>0.4038091496051948</v>
       </c>
       <c r="G18">
-        <v>0.0008056448927249723</v>
+        <v>0.2272083638428199</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07178845382425436</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.06524849148329714</v>
+        <v>0.2259089031533179</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.1803142269870373</v>
       </c>
       <c r="L18">
-        <v>0.2377532550005981</v>
+        <v>0.1333018970370645</v>
       </c>
       <c r="M18">
-        <v>0.6291821575885805</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.1650999838547733</v>
       </c>
       <c r="O18">
-        <v>2.300727263813826</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.5680185232311672</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0.9035933133594938</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.628385743010654</v>
+        <v>3.683883861062327</v>
       </c>
       <c r="C19">
-        <v>0.5211947996433537</v>
+        <v>0.6404417047902484</v>
       </c>
       <c r="D19">
-        <v>0.05793074984617874</v>
+        <v>0.08552485056618764</v>
       </c>
       <c r="E19">
-        <v>0.04060611193484931</v>
+        <v>0.0549433044972143</v>
       </c>
       <c r="F19">
-        <v>0.8764873816277117</v>
+        <v>0.4521337978788935</v>
       </c>
       <c r="G19">
-        <v>0.0008060355884145351</v>
+        <v>0.2607334828848167</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02650498368506504</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.06544367431379605</v>
+        <v>0.2438723011276167</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.1952047442663218</v>
       </c>
       <c r="L19">
-        <v>0.2361024346659093</v>
+        <v>0.1103265658824775</v>
       </c>
       <c r="M19">
-        <v>0.6238470497720172</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.2090812273740212</v>
       </c>
       <c r="O19">
-        <v>2.296205368571691</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.5946529285617004</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>1.01226845677165</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.771100048035521</v>
+        <v>3.790134321182904</v>
       </c>
       <c r="C20">
-        <v>0.5370580814024493</v>
+        <v>0.6032724868047126</v>
       </c>
       <c r="D20">
-        <v>0.05912615684881217</v>
+        <v>0.1024025288138048</v>
       </c>
       <c r="E20">
-        <v>0.040146625124585</v>
+        <v>0.05787810494311474</v>
       </c>
       <c r="F20">
-        <v>0.8853602669026372</v>
+        <v>0.5344482431057358</v>
       </c>
       <c r="G20">
-        <v>0.0008042827016539342</v>
+        <v>0.3187580156677612</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.0001400594106368835</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.06457040357593691</v>
+        <v>0.271601543280525</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.2169025149261774</v>
       </c>
       <c r="L20">
-        <v>0.243544033364671</v>
+        <v>0.09034425556688142</v>
       </c>
       <c r="M20">
-        <v>0.6478797625266637</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.295597411116006</v>
       </c>
       <c r="O20">
-        <v>2.31706136033543</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.6663354230055205</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>1.19348589447344</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.252988626446665</v>
+        <v>4.259592938798676</v>
       </c>
       <c r="C21">
-        <v>0.5905237142278281</v>
+        <v>0.6584914664819053</v>
       </c>
       <c r="D21">
-        <v>0.06319534810860006</v>
+        <v>0.1106526518598372</v>
       </c>
       <c r="E21">
-        <v>0.03865910354378599</v>
+        <v>0.05888508265813286</v>
       </c>
       <c r="F21">
-        <v>0.918281745745702</v>
+        <v>0.558120894816085</v>
       </c>
       <c r="G21">
-        <v>0.0007984830076199677</v>
+        <v>0.3371901533031121</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.0001526292861118161</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.06172630356924103</v>
+        <v>0.274003350771892</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.207264195201077</v>
       </c>
       <c r="L21">
-        <v>0.2687834849604798</v>
+        <v>0.09154303614488235</v>
       </c>
       <c r="M21">
-        <v>0.7290875957530645</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.3335245137627538</v>
       </c>
       <c r="O21">
-        <v>2.396398620257713</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.752865266984486</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>1.237977444796115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.569994259915632</v>
+        <v>4.568326118690038</v>
       </c>
       <c r="C22">
-        <v>0.625617782235679</v>
+        <v>0.6971461395167182</v>
       </c>
       <c r="D22">
-        <v>0.065897017832107</v>
+        <v>0.1153231545637823</v>
       </c>
       <c r="E22">
-        <v>0.03772964042172955</v>
+        <v>0.05923984259749115</v>
       </c>
       <c r="F22">
-        <v>0.9422774224514114</v>
+        <v>0.5706592109361281</v>
       </c>
       <c r="G22">
-        <v>0.0007947559849769598</v>
+        <v>0.3473528294519923</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.0005175841274636106</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.05993606960639042</v>
+        <v>0.2746699066648262</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.2002508673871439</v>
       </c>
       <c r="L22">
-        <v>0.2854731648936735</v>
+        <v>0.09294125793942776</v>
       </c>
       <c r="M22">
-        <v>0.7825547593394759</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.3542741162452216</v>
       </c>
       <c r="O22">
-        <v>2.45565204227637</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0.8071785309675406</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>1.261162122645857</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.400594576147796</v>
+        <v>4.40351491893091</v>
       </c>
       <c r="C23">
-        <v>0.606871800702919</v>
+        <v>0.6765134674314766</v>
       </c>
       <c r="D23">
-        <v>0.06445103045333411</v>
+        <v>0.1128270294513811</v>
       </c>
       <c r="E23">
-        <v>0.03822175307800935</v>
+        <v>0.05905017971255599</v>
       </c>
       <c r="F23">
-        <v>0.9292327903211515</v>
+        <v>0.5638706443605059</v>
       </c>
       <c r="G23">
-        <v>0.0007967395972055881</v>
+        <v>0.3418445170454447</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.0002965222197505168</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.06088517917985392</v>
+        <v>0.2742661102683002</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.2039303383668134</v>
       </c>
       <c r="L23">
-        <v>0.2765466039477644</v>
+        <v>0.09219667054620118</v>
       </c>
       <c r="M23">
-        <v>0.7539790485100895</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.3431953002301356</v>
       </c>
       <c r="O23">
-        <v>2.423316866921084</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.7781826144656634</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>1.248509349328657</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.763254568785555</v>
+        <v>3.779958673168323</v>
       </c>
       <c r="C24">
-        <v>0.5361863815544723</v>
+        <v>0.5984005528420084</v>
       </c>
       <c r="D24">
-        <v>0.05906031923527166</v>
+        <v>0.1034450609432511</v>
       </c>
       <c r="E24">
-        <v>0.04017164806094486</v>
+        <v>0.05833798164577075</v>
       </c>
       <c r="F24">
-        <v>0.8848617073044664</v>
+        <v>0.5402226828451901</v>
       </c>
       <c r="G24">
-        <v>0.0008043786155508096</v>
+        <v>0.3227746136906688</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1.704989739426122E-05</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.06461802462188615</v>
+        <v>0.2737656854425126</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.2192295169861964</v>
       </c>
       <c r="L24">
-        <v>0.2431345294044576</v>
+        <v>0.08933896263009267</v>
       </c>
       <c r="M24">
-        <v>0.6465583862877224</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.3013214682549972</v>
       </c>
       <c r="O24">
-        <v>2.315882414118704</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.6685170721906601</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>1.206528167901084</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.082852880405312</v>
+        <v>3.108015037155667</v>
       </c>
       <c r="C25">
-        <v>0.460422620457166</v>
+        <v>0.5141321194271029</v>
       </c>
       <c r="D25">
-        <v>0.0534087187167529</v>
+        <v>0.09346157688248269</v>
       </c>
       <c r="E25">
-        <v>0.04245349458222636</v>
+        <v>0.05757722965508671</v>
       </c>
       <c r="F25">
-        <v>0.8466259820700799</v>
+        <v>0.5187538659617772</v>
       </c>
       <c r="G25">
-        <v>0.000812912861502881</v>
+        <v>0.3056671839206047</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.0007876393822654482</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.06892940482875076</v>
+        <v>0.2752622266947924</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.2384314546864168</v>
       </c>
       <c r="L25">
-        <v>0.2078157985549751</v>
+        <v>0.08616989373991757</v>
       </c>
       <c r="M25">
-        <v>0.5320645357250768</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.2562732002354267</v>
       </c>
       <c r="O25">
-        <v>2.228642000014986</v>
+        <v>0.5504187350447083</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>1.172818451707371</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_41/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_41/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.613080362379833</v>
+        <v>2.61772770683649</v>
       </c>
       <c r="C2">
-        <v>0.4519946018466783</v>
+        <v>0.4558883925327564</v>
       </c>
       <c r="D2">
-        <v>0.08621092120230855</v>
+        <v>0.08677187388641272</v>
       </c>
       <c r="E2">
-        <v>0.05701820044041961</v>
+        <v>0.05586157508629341</v>
       </c>
       <c r="F2">
-        <v>0.5060702337488152</v>
+        <v>0.4869294508366835</v>
       </c>
       <c r="G2">
-        <v>0.2957018602522012</v>
+        <v>0.2629993146046914</v>
       </c>
       <c r="H2">
-        <v>0.002163915744438638</v>
+        <v>0.001752257742068219</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2779633408518549</v>
+        <v>0.3015528973906498</v>
       </c>
       <c r="K2">
-        <v>0.2546919573023754</v>
+        <v>0.2367126839178422</v>
       </c>
       <c r="L2">
-        <v>0.08375617773557309</v>
+        <v>0.1262502853504781</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.05892941393418205</v>
       </c>
       <c r="N2">
-        <v>0.2231407990405856</v>
+        <v>0.08233112212919025</v>
       </c>
       <c r="O2">
-        <v>0.4634901940210483</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.2332433089305397</v>
       </c>
       <c r="Q2">
-        <v>1.156897113314216</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.4668679908354463</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>1.103802649324706</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.277207620597153</v>
+        <v>2.282898328105603</v>
       </c>
       <c r="C3">
-        <v>0.4097912254170808</v>
+        <v>0.4066621196799076</v>
       </c>
       <c r="D3">
-        <v>0.08135168249681612</v>
+        <v>0.08200938338891461</v>
       </c>
       <c r="E3">
-        <v>0.05663758284625731</v>
+        <v>0.05563644495891396</v>
       </c>
       <c r="F3">
-        <v>0.4992590260624183</v>
+        <v>0.4816029079216477</v>
       </c>
       <c r="G3">
-        <v>0.2904270739917649</v>
+        <v>0.2597238824213193</v>
       </c>
       <c r="H3">
-        <v>0.003547859978100421</v>
+        <v>0.002910853899334265</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2807203989830924</v>
+        <v>0.3023380493486414</v>
       </c>
       <c r="K3">
-        <v>0.2669419329442526</v>
+        <v>0.2484776682684515</v>
       </c>
       <c r="L3">
-        <v>0.08206766128364862</v>
+        <v>0.132534599268272</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.06267923013901378</v>
       </c>
       <c r="N3">
-        <v>0.2006791467636475</v>
+        <v>0.08044660192788022</v>
       </c>
       <c r="O3">
-        <v>0.4045320852481709</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.2099446758201182</v>
       </c>
       <c r="Q3">
-        <v>1.151165071016734</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.4070845550911102</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>1.101473292218486</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.070661437524109</v>
+        <v>2.07687377871116</v>
       </c>
       <c r="C4">
-        <v>0.3838227992652605</v>
+        <v>0.3765025490307039</v>
       </c>
       <c r="D4">
-        <v>0.07839265991304956</v>
+        <v>0.07911660679227595</v>
       </c>
       <c r="E4">
-        <v>0.05640225764548878</v>
+        <v>0.05549811639049418</v>
       </c>
       <c r="F4">
-        <v>0.495905898767937</v>
+        <v>0.4790214138173425</v>
       </c>
       <c r="G4">
-        <v>0.2878670377662189</v>
+        <v>0.2583676883756638</v>
       </c>
       <c r="H4">
-        <v>0.004603334982954121</v>
+        <v>0.00379861460587988</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2828479937285024</v>
+        <v>0.3030531078575578</v>
       </c>
       <c r="K4">
-        <v>0.2750406501331479</v>
+        <v>0.2561763925491292</v>
       </c>
       <c r="L4">
-        <v>0.08100414018313806</v>
+        <v>0.1366884153835617</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.06555548940545508</v>
       </c>
       <c r="N4">
-        <v>0.1868748443186163</v>
+        <v>0.0792710662636491</v>
       </c>
       <c r="O4">
-        <v>0.368290779003118</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.195661594241102</v>
       </c>
       <c r="Q4">
-        <v>1.149986262899404</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.3703352046910169</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>1.101952431985325</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.98640022431556</v>
+        <v>1.992798063080272</v>
       </c>
       <c r="C5">
-        <v>0.3732253827083696</v>
+        <v>0.364227869748845</v>
       </c>
       <c r="D5">
-        <v>0.0771927035027602</v>
+        <v>0.0779454025482309</v>
       </c>
       <c r="E5">
-        <v>0.05630584583842779</v>
+        <v>0.05544163574700534</v>
       </c>
       <c r="F5">
-        <v>0.4947406546094655</v>
+        <v>0.4781364080662058</v>
       </c>
       <c r="G5">
-        <v>0.2869872641582631</v>
+        <v>0.2579721662863861</v>
       </c>
       <c r="H5">
-        <v>0.005082760187244684</v>
+        <v>0.004202667992126763</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2838211561320065</v>
+        <v>0.3034015357703836</v>
       </c>
       <c r="K5">
-        <v>0.2784818125048485</v>
+        <v>0.2594296805736622</v>
       </c>
       <c r="L5">
-        <v>0.08056391703428289</v>
+        <v>0.1384553755658082</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.06686936239982932</v>
       </c>
       <c r="N5">
-        <v>0.1812450980263804</v>
+        <v>0.07878731303816267</v>
       </c>
       <c r="O5">
-        <v>0.3535096456985514</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.1898457966732963</v>
       </c>
       <c r="Q5">
-        <v>1.15007255198276</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.3553471934764971</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>1.102609195826005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.972402834133959</v>
+        <v>1.978829920621138</v>
       </c>
       <c r="C6">
-        <v>0.3714647482788962</v>
+        <v>0.362190586581022</v>
       </c>
       <c r="D6">
-        <v>0.07699379743012713</v>
+        <v>0.07775137784203423</v>
       </c>
       <c r="E6">
-        <v>0.05628980260751737</v>
+        <v>0.05543224804978841</v>
       </c>
       <c r="F6">
-        <v>0.494559109964122</v>
+        <v>0.4779993584958078</v>
       </c>
       <c r="G6">
-        <v>0.2868508455119425</v>
+        <v>0.2579157649964685</v>
       </c>
       <c r="H6">
-        <v>0.005165277275833879</v>
+        <v>0.004272255274540004</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2839890697216987</v>
+        <v>0.3034627925504623</v>
       </c>
       <c r="K6">
-        <v>0.2790616010234928</v>
+        <v>0.2599767938456328</v>
       </c>
       <c r="L6">
-        <v>0.08049040305952992</v>
+        <v>0.1387532629299706</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.06709602076440646</v>
       </c>
       <c r="N6">
-        <v>0.1803099852831735</v>
+        <v>0.07870669940933972</v>
       </c>
       <c r="O6">
-        <v>0.3510544318242381</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.1888803435150876</v>
       </c>
       <c r="Q6">
-        <v>1.150120479575847</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.3528576506562757</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>1.102745592771853</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.069525448570914</v>
+        <v>2.075717219765068</v>
       </c>
       <c r="C7">
-        <v>0.3836799412543428</v>
+        <v>0.3759880936511593</v>
       </c>
       <c r="D7">
-        <v>0.07837645351293077</v>
+        <v>0.0792062085326819</v>
       </c>
       <c r="E7">
-        <v>0.05640095962427027</v>
+        <v>0.0554954682962947</v>
       </c>
       <c r="F7">
-        <v>0.4958893787143595</v>
+        <v>0.4783041782446915</v>
       </c>
       <c r="G7">
-        <v>0.2878545203056433</v>
+        <v>0.2605026586502746</v>
       </c>
       <c r="H7">
-        <v>0.004609604165504599</v>
+        <v>0.003808193072784793</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.282860692441794</v>
+        <v>0.2997246733735537</v>
       </c>
       <c r="K7">
-        <v>0.2750864940084838</v>
+        <v>0.2559703082827163</v>
       </c>
       <c r="L7">
-        <v>0.08099823095903247</v>
+        <v>0.136565964831199</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.06552879833574021</v>
       </c>
       <c r="N7">
-        <v>0.1867989388347269</v>
+        <v>0.07925213940359477</v>
       </c>
       <c r="O7">
-        <v>0.3680914889655469</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.1955632660478273</v>
       </c>
       <c r="Q7">
-        <v>1.149985160602569</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.3701247828663199</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>1.099828439339646</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.497330172404418</v>
+        <v>2.502281758831714</v>
       </c>
       <c r="C8">
-        <v>0.4374536334431696</v>
+        <v>0.4377273691922881</v>
       </c>
       <c r="D8">
-        <v>0.0845301638339393</v>
+        <v>0.08547761702322987</v>
       </c>
       <c r="E8">
-        <v>0.05688723515179683</v>
+        <v>0.05577962201399878</v>
       </c>
       <c r="F8">
-        <v>0.50354521322366</v>
+        <v>0.482624410738417</v>
       </c>
       <c r="G8">
-        <v>0.2937378288787755</v>
+        <v>0.2688893265126637</v>
       </c>
       <c r="H8">
-        <v>0.002596920077065634</v>
+        <v>0.00212371845857956</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2788217969959916</v>
+        <v>0.2909951176338978</v>
       </c>
       <c r="K8">
-        <v>0.2587933430812175</v>
+        <v>0.2398717554155851</v>
       </c>
       <c r="L8">
-        <v>0.08317946988349512</v>
+        <v>0.1279439993757077</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.05990683706592215</v>
       </c>
       <c r="N8">
-        <v>0.2153979370611125</v>
+        <v>0.08164828211136665</v>
       </c>
       <c r="O8">
-        <v>0.4431684817549524</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.2251387821998705</v>
       </c>
       <c r="Q8">
-        <v>1.154421445114806</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.4462321916175824</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>1.095581955710955</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.334341642578238</v>
+        <v>3.335861600079397</v>
       </c>
       <c r="C9">
-        <v>0.5425271418989155</v>
+        <v>0.5606350837740308</v>
       </c>
       <c r="D9">
-        <v>0.09680787475404884</v>
+        <v>0.09765422679582514</v>
       </c>
       <c r="E9">
-        <v>0.05783297717838742</v>
+        <v>0.05634662942495661</v>
       </c>
       <c r="F9">
-        <v>0.5254777925209524</v>
+        <v>0.4994180228794463</v>
       </c>
       <c r="G9">
-        <v>0.310998762763063</v>
+        <v>0.2829977326596307</v>
       </c>
       <c r="H9">
-        <v>0.0003950738221342176</v>
+        <v>0.0002993847356880242</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2744998676276609</v>
+        <v>0.2875349717583973</v>
       </c>
       <c r="K9">
-        <v>0.2316206726831211</v>
+        <v>0.2131381526637135</v>
       </c>
       <c r="L9">
-        <v>0.08724951056570873</v>
+        <v>0.1139158778514702</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.05370818790198051</v>
       </c>
       <c r="N9">
-        <v>0.2714378967220625</v>
+        <v>0.0862499419449545</v>
       </c>
       <c r="O9">
-        <v>0.5901873698252302</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.2834340767552703</v>
       </c>
       <c r="Q9">
-        <v>1.18272312584098</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.5952685133966256</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>1.111012978470555</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.952282290478081</v>
+        <v>3.950395795781674</v>
       </c>
       <c r="C10">
-        <v>0.6246340076478418</v>
+        <v>0.6535270565654514</v>
       </c>
       <c r="D10">
-        <v>0.1044922171823828</v>
+        <v>0.1059031809039581</v>
       </c>
       <c r="E10">
-        <v>0.0579356603950556</v>
+        <v>0.05624040517786533</v>
       </c>
       <c r="F10">
-        <v>0.5385468013668486</v>
+        <v>0.5047810539080402</v>
       </c>
       <c r="G10">
-        <v>0.3222271991276671</v>
+        <v>0.3053138136738269</v>
       </c>
       <c r="H10">
-        <v>0.0001879998620406553</v>
+        <v>0.0001898533749287168</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2709643465903824</v>
+        <v>0.2665845750886575</v>
       </c>
       <c r="K10">
-        <v>0.212141270071097</v>
+        <v>0.1927302108864382</v>
       </c>
       <c r="L10">
-        <v>0.09138521108159381</v>
+        <v>0.1038541399990009</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.05077332381416078</v>
       </c>
       <c r="N10">
-        <v>0.3046543870840566</v>
+        <v>0.09089890018565328</v>
       </c>
       <c r="O10">
-        <v>0.6937074358490136</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.3179397208379271</v>
       </c>
       <c r="Q10">
-        <v>1.19963903554104</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.700002894940603</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>1.106346387929236</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.262040499275656</v>
+        <v>4.259353839718301</v>
       </c>
       <c r="C11">
-        <v>0.7081332962993656</v>
+        <v>0.7310486781948669</v>
       </c>
       <c r="D11">
-        <v>0.09546586310798943</v>
+        <v>0.097837908109625</v>
       </c>
       <c r="E11">
-        <v>0.05524711620288181</v>
+        <v>0.05386469829082796</v>
       </c>
       <c r="F11">
-        <v>0.4801720983884437</v>
+        <v>0.4439605425706858</v>
       </c>
       <c r="G11">
-        <v>0.2825643011990024</v>
+        <v>0.2964029478831733</v>
       </c>
       <c r="H11">
-        <v>0.01875818619411262</v>
+        <v>0.01875824347852983</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2465054856127296</v>
+        <v>0.217097152440509</v>
       </c>
       <c r="K11">
-        <v>0.1825972632194528</v>
+        <v>0.1660323776375616</v>
       </c>
       <c r="L11">
-        <v>0.1097862771427103</v>
+        <v>0.09393776626958328</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.04198868519978305</v>
       </c>
       <c r="N11">
-        <v>0.2537597339242694</v>
+        <v>0.110469030503662</v>
       </c>
       <c r="O11">
-        <v>0.7009979874863603</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.2641717527806264</v>
       </c>
       <c r="Q11">
-        <v>1.064548322801187</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.7064095712155947</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0.962744391832274</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.394098496590857</v>
+        <v>4.391645887052221</v>
       </c>
       <c r="C12">
-        <v>0.7645246600880853</v>
+        <v>0.7804528506894997</v>
       </c>
       <c r="D12">
-        <v>0.08666770171922877</v>
+        <v>0.08924118936653969</v>
       </c>
       <c r="E12">
-        <v>0.05622298164531614</v>
+        <v>0.05497702143954264</v>
       </c>
       <c r="F12">
-        <v>0.4301367807236147</v>
+        <v>0.3962516430141392</v>
       </c>
       <c r="G12">
-        <v>0.2481773314609441</v>
+        <v>0.2756588294537181</v>
       </c>
       <c r="H12">
-        <v>0.05742275032442734</v>
+        <v>0.05742188808922322</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2271526543757432</v>
+        <v>0.1942341023405341</v>
       </c>
       <c r="K12">
-        <v>0.164224953318298</v>
+        <v>0.1510415132305951</v>
       </c>
       <c r="L12">
-        <v>0.1319957065686168</v>
+        <v>0.08914624836482421</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.03602448363951538</v>
       </c>
       <c r="N12">
-        <v>0.2085702855184621</v>
+        <v>0.1332971324870513</v>
       </c>
       <c r="O12">
-        <v>0.6847661754006111</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.2166317594472034</v>
       </c>
       <c r="Q12">
-        <v>0.9511987175857541</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.6892251222188932</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0.8551745793880343</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.39569414322284</v>
+        <v>4.39439823953785</v>
       </c>
       <c r="C13">
-        <v>0.8026388200549093</v>
+        <v>0.8116308097281717</v>
       </c>
       <c r="D13">
-        <v>0.07757000691362492</v>
+        <v>0.07963430589710896</v>
       </c>
       <c r="E13">
-        <v>0.05995391795909466</v>
+        <v>0.05879930037202641</v>
       </c>
       <c r="F13">
-        <v>0.3833874327918281</v>
+        <v>0.3563018812722589</v>
       </c>
       <c r="G13">
-        <v>0.2156177212304939</v>
+        <v>0.2400314407802924</v>
       </c>
       <c r="H13">
-        <v>0.1131469168727506</v>
+        <v>0.1131469973454244</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.210446429988032</v>
+        <v>0.1878173374763641</v>
       </c>
       <c r="K13">
-        <v>0.1530102416086612</v>
+        <v>0.1434749894207368</v>
       </c>
       <c r="L13">
-        <v>0.1580057953161003</v>
+        <v>0.08710987876056653</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.03210153586077702</v>
       </c>
       <c r="N13">
-        <v>0.1654059425010104</v>
+        <v>0.1594180819088606</v>
       </c>
       <c r="O13">
-        <v>0.6496188991673861</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.1714617331513963</v>
       </c>
       <c r="Q13">
-        <v>0.8471638740147824</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.6530521777243266</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0.7702499756465215</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.337621287970592</v>
+        <v>4.337530954531701</v>
       </c>
       <c r="C14">
-        <v>0.8210621342638547</v>
+        <v>0.8252049605629566</v>
       </c>
       <c r="D14">
-        <v>0.07118406159393942</v>
+        <v>0.07266193471480875</v>
       </c>
       <c r="E14">
-        <v>0.06417393352365863</v>
+        <v>0.0630818731631706</v>
       </c>
       <c r="F14">
-        <v>0.3526911123388174</v>
+        <v>0.3317720961221369</v>
       </c>
       <c r="G14">
-        <v>0.1940414371071881</v>
+        <v>0.2102492873984687</v>
       </c>
       <c r="H14">
-        <v>0.1624783448496601</v>
+        <v>0.1624758976547724</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2001134938724292</v>
+        <v>0.1888700060808439</v>
       </c>
       <c r="K14">
-        <v>0.1487215561912789</v>
+        <v>0.1414203087954835</v>
       </c>
       <c r="L14">
-        <v>0.1786396865677062</v>
+        <v>0.08669161939078868</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.03043935760404448</v>
       </c>
       <c r="N14">
-        <v>0.1370350661150042</v>
+        <v>0.1798063445072984</v>
       </c>
       <c r="O14">
-        <v>0.6166341968770297</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.1419042120980194</v>
       </c>
       <c r="Q14">
-        <v>0.7797202518982829</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.6193192139105577</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0.7204243804185921</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.295416982634265</v>
+        <v>4.295800854872255</v>
       </c>
       <c r="C15">
-        <v>0.8211071214792582</v>
+        <v>0.8241571135249615</v>
       </c>
       <c r="D15">
-        <v>0.06952131213178347</v>
+        <v>0.07076384181537776</v>
       </c>
       <c r="E15">
-        <v>0.0653394623867527</v>
+        <v>0.0642845535385117</v>
       </c>
       <c r="F15">
-        <v>0.3456847177164306</v>
+        <v>0.326912461353615</v>
       </c>
       <c r="G15">
-        <v>0.1890004583747711</v>
+        <v>0.2008596679205041</v>
       </c>
       <c r="H15">
-        <v>0.1749846659851215</v>
+        <v>0.1749793519127536</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1980929574530776</v>
+        <v>0.1915381837101435</v>
       </c>
       <c r="K15">
-        <v>0.1488510322156289</v>
+        <v>0.1420211636894249</v>
       </c>
       <c r="L15">
-        <v>0.1834014701544788</v>
+        <v>0.08689965469634009</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.03039415912461951</v>
       </c>
       <c r="N15">
-        <v>0.130008052701875</v>
+        <v>0.18442375350633</v>
       </c>
       <c r="O15">
-        <v>0.6047017128441681</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.1346291661345873</v>
       </c>
       <c r="Q15">
-        <v>0.7647640525178474</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.6071866258718401</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0.7116833698722189</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.027227267225612</v>
+        <v>4.0292255752355</v>
       </c>
       <c r="C16">
-        <v>0.7762244751452272</v>
+        <v>0.7798988276181831</v>
       </c>
       <c r="D16">
-        <v>0.06825771288347227</v>
+        <v>0.06870177113994913</v>
       </c>
       <c r="E16">
-        <v>0.06428216991681879</v>
+        <v>0.06345102705172678</v>
       </c>
       <c r="F16">
-        <v>0.3492908818633538</v>
+        <v>0.3364044756498892</v>
       </c>
       <c r="G16">
-        <v>0.1903944435051343</v>
+        <v>0.1827975241979374</v>
       </c>
       <c r="H16">
-        <v>0.1622809200413826</v>
+        <v>0.1622418242815371</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2026675491446639</v>
+        <v>0.2152722018152318</v>
       </c>
       <c r="K16">
-        <v>0.1585560167225211</v>
+        <v>0.1515920799164228</v>
       </c>
       <c r="L16">
-        <v>0.175259469133529</v>
+        <v>0.0897776891364872</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.03330191819385542</v>
       </c>
       <c r="N16">
-        <v>0.125739392797918</v>
+        <v>0.1757982296893843</v>
       </c>
       <c r="O16">
-        <v>0.5681755655484935</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.1305213859478016</v>
       </c>
       <c r="Q16">
-        <v>0.7770818620217881</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.5704768689375683</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0.7414751731419926</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.853013361135368</v>
+        <v>3.855527294451747</v>
       </c>
       <c r="C17">
-        <v>0.7321587744143301</v>
+        <v>0.7381694013841127</v>
       </c>
       <c r="D17">
-        <v>0.07060822710492687</v>
+        <v>0.07079945066713123</v>
       </c>
       <c r="E17">
-        <v>0.06100162541748588</v>
+        <v>0.0602509267377247</v>
       </c>
       <c r="F17">
-        <v>0.3682926275659781</v>
+        <v>0.3563879493966766</v>
       </c>
       <c r="G17">
-        <v>0.2029146997477298</v>
+        <v>0.186440980671378</v>
       </c>
       <c r="H17">
-        <v>0.1245691516666625</v>
+        <v>0.1244975630936977</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2117047508409158</v>
+        <v>0.2329560986235322</v>
       </c>
       <c r="K17">
-        <v>0.16828631747501</v>
+        <v>0.1603535479233633</v>
       </c>
       <c r="L17">
-        <v>0.1576263379122764</v>
+        <v>0.09269519375763036</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.03627572708127413</v>
       </c>
       <c r="N17">
-        <v>0.136876530758407</v>
+        <v>0.1580307742630822</v>
       </c>
       <c r="O17">
-        <v>0.557598492679837</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.1423387805432483</v>
       </c>
       <c r="Q17">
-        <v>0.8224171589823754</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.5601339587205345</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0.790024446380059</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.73974541950156</v>
+        <v>3.742021178885238</v>
       </c>
       <c r="C18">
-        <v>0.6850240892838713</v>
+        <v>0.6957065488891487</v>
       </c>
       <c r="D18">
-        <v>0.07659773137648074</v>
+        <v>0.07677075110112241</v>
       </c>
       <c r="E18">
-        <v>0.05699005241069433</v>
+        <v>0.05618839987738422</v>
       </c>
       <c r="F18">
-        <v>0.4038091496051948</v>
+        <v>0.3898517153827825</v>
       </c>
       <c r="G18">
-        <v>0.2272083638428199</v>
+        <v>0.2048924044867491</v>
       </c>
       <c r="H18">
-        <v>0.07178845382425436</v>
+        <v>0.07170277077122478</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2259089031533179</v>
+        <v>0.2501127621182562</v>
       </c>
       <c r="K18">
-        <v>0.1803142269870373</v>
+        <v>0.1705689364919056</v>
       </c>
       <c r="L18">
-        <v>0.1333018970370645</v>
+        <v>0.096447082318452</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.03991337180125853</v>
       </c>
       <c r="N18">
-        <v>0.1650999838547733</v>
+        <v>0.133688182298215</v>
       </c>
       <c r="O18">
-        <v>0.5680185232311672</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.1719309291812152</v>
       </c>
       <c r="Q18">
-        <v>0.9035933133594938</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.5712101004400765</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0.8657607933363494</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.683883861062327</v>
+        <v>3.685377586198967</v>
       </c>
       <c r="C19">
-        <v>0.6404417047902484</v>
+        <v>0.6572601736043566</v>
       </c>
       <c r="D19">
-        <v>0.08552485056618764</v>
+        <v>0.0858142250638636</v>
       </c>
       <c r="E19">
-        <v>0.0549433044972143</v>
+        <v>0.05392525710159601</v>
       </c>
       <c r="F19">
-        <v>0.4521337978788935</v>
+        <v>0.4339037206394636</v>
       </c>
       <c r="G19">
-        <v>0.2607334828848167</v>
+        <v>0.2336070532337189</v>
       </c>
       <c r="H19">
-        <v>0.02650498368506504</v>
+        <v>0.02643202640450681</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2438723011276167</v>
+        <v>0.2675011544771948</v>
       </c>
       <c r="K19">
-        <v>0.1952047442663218</v>
+        <v>0.1827155762628063</v>
       </c>
       <c r="L19">
-        <v>0.1103265658824775</v>
+        <v>0.1010858290898469</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.04441650695321364</v>
       </c>
       <c r="N19">
-        <v>0.2090812273740212</v>
+        <v>0.1105203686171627</v>
       </c>
       <c r="O19">
-        <v>0.5946529285617004</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.2179927422516386</v>
       </c>
       <c r="Q19">
-        <v>1.01226845677165</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.5988199762414723</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0.9627668150549908</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.790134321182904</v>
+        <v>3.789320626984249</v>
       </c>
       <c r="C20">
-        <v>0.6032724868047126</v>
+        <v>0.6305834231547465</v>
       </c>
       <c r="D20">
-        <v>0.1024025288138048</v>
+        <v>0.1032687336436595</v>
       </c>
       <c r="E20">
-        <v>0.05787810494311474</v>
+        <v>0.05624114729118324</v>
       </c>
       <c r="F20">
-        <v>0.5344482431057358</v>
+        <v>0.5052463098934226</v>
       </c>
       <c r="G20">
-        <v>0.3187580156677612</v>
+        <v>0.2910317344204003</v>
       </c>
       <c r="H20">
-        <v>0.0001400594106368835</v>
+        <v>0.0001290751531843881</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.271601543280525</v>
+        <v>0.2824710194329612</v>
       </c>
       <c r="K20">
-        <v>0.2169025149261774</v>
+        <v>0.1985667551396197</v>
       </c>
       <c r="L20">
-        <v>0.09034425556688142</v>
+        <v>0.1066054869481157</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.05163528547045537</v>
       </c>
       <c r="N20">
-        <v>0.295597411116006</v>
+        <v>0.08975089202007069</v>
       </c>
       <c r="O20">
-        <v>0.6663354230055205</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.3085926464178357</v>
       </c>
       <c r="Q20">
-        <v>1.19348589447344</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.6723505007409472</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>1.113497251310434</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.259592938798676</v>
+        <v>4.255058319075147</v>
       </c>
       <c r="C21">
-        <v>0.6584914664819053</v>
+        <v>0.6884554591414656</v>
       </c>
       <c r="D21">
-        <v>0.1106526518598372</v>
+        <v>0.1141694332154515</v>
       </c>
       <c r="E21">
-        <v>0.05888508265813286</v>
+        <v>0.05700926073333745</v>
       </c>
       <c r="F21">
-        <v>0.558120894816085</v>
+        <v>0.5083409031170945</v>
       </c>
       <c r="G21">
-        <v>0.3371901533031121</v>
+        <v>0.361790551226207</v>
       </c>
       <c r="H21">
-        <v>0.0001526292861118161</v>
+        <v>0.0001418025349801955</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.274003350771892</v>
+        <v>0.2219817722678954</v>
       </c>
       <c r="K21">
-        <v>0.207264195201077</v>
+        <v>0.1830385364364862</v>
       </c>
       <c r="L21">
-        <v>0.09154303614488235</v>
+        <v>0.09924427347717746</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.04989978125237826</v>
       </c>
       <c r="N21">
-        <v>0.3335245137627538</v>
+        <v>0.09101981580263541</v>
       </c>
       <c r="O21">
-        <v>0.752865266984486</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.3477889653893556</v>
       </c>
       <c r="Q21">
-        <v>1.237977444796115</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.7598040106077661</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>1.097823369393112</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.568326118690038</v>
+        <v>4.561171692024061</v>
       </c>
       <c r="C22">
-        <v>0.6971461395167182</v>
+        <v>0.7279007301305285</v>
       </c>
       <c r="D22">
-        <v>0.1153231545637823</v>
+        <v>0.1208333617248769</v>
       </c>
       <c r="E22">
-        <v>0.05923984259749115</v>
+        <v>0.05726735900977431</v>
       </c>
       <c r="F22">
-        <v>0.5706592109361281</v>
+        <v>0.5065754523650625</v>
       </c>
       <c r="G22">
-        <v>0.3473528294519923</v>
+        <v>0.4138730736944041</v>
       </c>
       <c r="H22">
-        <v>0.0005175841274636106</v>
+        <v>0.0004474935224331178</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2746699066648262</v>
+        <v>0.1888333543543617</v>
       </c>
       <c r="K22">
-        <v>0.2002508673871439</v>
+        <v>0.1721442165961111</v>
       </c>
       <c r="L22">
-        <v>0.09294125793942776</v>
+        <v>0.09445468163909077</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.04862297601427912</v>
       </c>
       <c r="N22">
-        <v>0.3542741162452216</v>
+        <v>0.09255091132177995</v>
       </c>
       <c r="O22">
-        <v>0.8071785309675406</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.3691565986379715</v>
       </c>
       <c r="Q22">
-        <v>1.261162122645857</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.8145956588204655</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>1.079234681125257</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.40351491893091</v>
+        <v>4.397850225088348</v>
       </c>
       <c r="C23">
-        <v>0.6765134674314766</v>
+        <v>0.7078157519803199</v>
       </c>
       <c r="D23">
-        <v>0.1128270294513811</v>
+        <v>0.1169529458247993</v>
       </c>
       <c r="E23">
-        <v>0.05905017971255599</v>
+        <v>0.05712162044533953</v>
       </c>
       <c r="F23">
-        <v>0.5638706443605059</v>
+        <v>0.509266816837787</v>
       </c>
       <c r="G23">
-        <v>0.3418445170454447</v>
+        <v>0.3789005578122442</v>
       </c>
       <c r="H23">
-        <v>0.0002965222197505168</v>
+        <v>0.0002653903487191966</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2742661102683002</v>
+        <v>0.2105667561847326</v>
       </c>
       <c r="K23">
-        <v>0.2039303383668134</v>
+        <v>0.1784526692714579</v>
       </c>
       <c r="L23">
-        <v>0.09219667054620118</v>
+        <v>0.09713352809717879</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.04951736443769761</v>
       </c>
       <c r="N23">
-        <v>0.3431953002301356</v>
+        <v>0.09174898918988106</v>
       </c>
       <c r="O23">
-        <v>0.7781826144656634</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.3577983702192853</v>
       </c>
       <c r="Q23">
-        <v>1.248509349328657</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.7853771181237335</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>1.094351842162425</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.779958673168323</v>
+        <v>3.779085131675117</v>
       </c>
       <c r="C24">
-        <v>0.5984005528420084</v>
+        <v>0.6261920958478413</v>
       </c>
       <c r="D24">
-        <v>0.1034450609432511</v>
+        <v>0.1043136376876461</v>
       </c>
       <c r="E24">
-        <v>0.05833798164577075</v>
+        <v>0.05665353374809801</v>
       </c>
       <c r="F24">
-        <v>0.5402226828451901</v>
+        <v>0.5105660707805058</v>
       </c>
       <c r="G24">
-        <v>0.3227746136906688</v>
+        <v>0.2941614621697894</v>
       </c>
       <c r="H24">
-        <v>1.704989739426122E-05</v>
+        <v>7.54683638060083E-06</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2737656854425126</v>
+        <v>0.2849277351975417</v>
       </c>
       <c r="K24">
-        <v>0.2192295169861964</v>
+        <v>0.2004939607584237</v>
       </c>
       <c r="L24">
-        <v>0.08933896263009267</v>
+        <v>0.1073438033936718</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.05233079670592566</v>
       </c>
       <c r="N24">
-        <v>0.3013214682549972</v>
+        <v>0.08864363698543443</v>
       </c>
       <c r="O24">
-        <v>0.6685170721906601</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.3146072655863605</v>
       </c>
       <c r="Q24">
-        <v>1.206528167901084</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.6746344162827853</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>1.125323722205124</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.108015037155667</v>
+        <v>3.110637177191734</v>
       </c>
       <c r="C25">
-        <v>0.5141321194271029</v>
+        <v>0.5278262962062854</v>
       </c>
       <c r="D25">
-        <v>0.09346157688248269</v>
+        <v>0.09417557910280294</v>
       </c>
       <c r="E25">
-        <v>0.05757722965508671</v>
+        <v>0.05619320866164079</v>
       </c>
       <c r="F25">
-        <v>0.5187538659617772</v>
+        <v>0.4952038455986383</v>
       </c>
       <c r="G25">
-        <v>0.3056671839206047</v>
+        <v>0.2754402209383144</v>
       </c>
       <c r="H25">
-        <v>0.0007876393822654482</v>
+        <v>0.0006170219430112756</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2752622266947924</v>
+        <v>0.2927611839681532</v>
       </c>
       <c r="K25">
-        <v>0.2384314546864168</v>
+        <v>0.2202541004533387</v>
       </c>
       <c r="L25">
-        <v>0.08616989373991757</v>
+        <v>0.1176023436199696</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.05497449761757522</v>
       </c>
       <c r="N25">
-        <v>0.2562732002354267</v>
+        <v>0.08503342278550008</v>
       </c>
       <c r="O25">
-        <v>0.5504187350447083</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.2676603038480039</v>
       </c>
       <c r="Q25">
-        <v>1.172818451707371</v>
+        <v>0.5549750841063386</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>1.107976437904213</v>
       </c>
     </row>
   </sheetData>
